--- a/Documentation/Sprint #3 Backlog.xlsx
+++ b/Documentation/Sprint #3 Backlog.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="35">
   <si>
     <t>SPRINT BACKLOG</t>
   </si>
@@ -46,6 +46,24 @@
     <t>Vibhas Kamal, Isara(Tito) Arunanondchai</t>
   </si>
   <si>
+    <t>Tasks for User Story 1</t>
+  </si>
+  <si>
+    <t>Task 1: As a developer, I need to be able to output revision data on to a webpage</t>
+  </si>
+  <si>
+    <t>Task 2: As a developer, I need to be able to properly integrate a web framework to the program.</t>
+  </si>
+  <si>
+    <t>As a user, I need to be able to interact with a web interface that will allow me to view data related to any file/folder/drive</t>
+  </si>
+  <si>
+    <t>Web-application</t>
+  </si>
+  <si>
+    <t>Entire team</t>
+  </si>
+  <si>
     <t>As a user, I need to be able to see what action a person has taken (such as create, delete)</t>
   </si>
   <si>
@@ -67,7 +85,19 @@
     <t>Jack Beard, Manvendra Singh</t>
   </si>
   <si>
-    <t>As a user, I need to be able to see the action data being represented in the form of a histogram</t>
+    <t>Tasks for User Story 4</t>
+  </si>
+  <si>
+    <t>Task 1: As a developer, I need to be able to render the chart using js</t>
+  </si>
+  <si>
+    <t>Task 2: As a developer, I need to be able to functionise the rendering using the parsed JSON data</t>
+  </si>
+  <si>
+    <t>As a user, I need to be able to see the action data being represented in the form of a stacked bar chart</t>
+  </si>
+  <si>
+    <t>Tasks for User Story 5</t>
   </si>
   <si>
     <t>As a user, I need to be able to see the revision data for files within a team drive even when a folder exists in said drive</t>
@@ -76,7 +106,7 @@
     <t>Data retrieval from Drive using Drive API</t>
   </si>
   <si>
-    <t>Tasks for User Story 5</t>
+    <t>Tasks for User Story 6</t>
   </si>
   <si>
     <t>Task 1: As a developer, I need to be able to retrieve the files inside a folder</t>
@@ -119,12 +149,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF3D85C6"/>
-        <bgColor rgb="FF3D85C6"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border/>
     <border>
       <left style="thin">
@@ -193,19 +223,11 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -235,18 +257,6 @@
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
     <xf borderId="5" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
@@ -259,17 +269,26 @@
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -278,7 +297,7 @@
     <xf borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -303,7 +322,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.57"/>
+    <col customWidth="1" min="1" max="1" width="20.14"/>
     <col customWidth="1" min="2" max="2" width="102.29"/>
     <col customWidth="1" min="3" max="3" width="12.57"/>
     <col customWidth="1" min="4" max="4" width="36.86"/>
@@ -392,204 +411,307 @@
       <c r="C5" s="13">
         <v>1.0</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="15" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="15">
-        <v>2.0</v>
-      </c>
-      <c r="B6" s="16" t="s">
+      <c r="A6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="17">
+      <c r="B6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="13">
         <v>1.0</v>
       </c>
-      <c r="D6" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="19" t="s">
+      <c r="D6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="11">
-        <v>3.0</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>15</v>
-      </c>
       <c r="C7" s="13">
-        <v>2.0</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>17</v>
+        <v>1.0</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="11">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C8" s="13">
-        <v>2.0</v>
-      </c>
-      <c r="D8" s="13" t="s">
+        <v>1.0</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="15" t="s">
         <v>16</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="17">
+        <v>4.0</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="17"/>
+      <c r="B12" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="17">
         <v>5.0</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B13" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="13">
+      <c r="F13" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="19">
         <v>2.0</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D14" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="17"/>
+      <c r="B15" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="17">
+        <v>6.0</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="13">
+    </row>
+    <row r="17">
+      <c r="A17" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="13">
         <v>2.0</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D17" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="22"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="23"/>
-      <c r="B11" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="25">
+    </row>
+    <row r="18">
+      <c r="A18" s="22"/>
+      <c r="B18" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="24">
         <v>3.0</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D18" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="26"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="8"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="8"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="8"/>
-      <c r="B13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="8"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" ht="15.0" customHeight="1">
-      <c r="A14" s="2"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="8"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="2"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="8"/>
-      <c r="D16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="F18" s="2"/>
     </row>
     <row r="19">
-      <c r="A19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="A19" s="8"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="8"/>
       <c r="F19" s="2"/>
     </row>
     <row r="20">
-      <c r="A20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="20"/>
+      <c r="D20" s="8"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21">
+    <row r="21" ht="15.0" customHeight="1">
       <c r="A21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="8"/>
       <c r="F21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" s="2"/>
+      <c r="C22" s="20"/>
       <c r="D22" s="2"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23">
-      <c r="A23" s="2"/>
+      <c r="A23" s="14"/>
       <c r="D23" s="2"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24">
-      <c r="A24" s="2"/>
+      <c r="A24" s="25"/>
       <c r="D24" s="2"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25">
-      <c r="A25" s="2"/>
+      <c r="A25" s="25"/>
       <c r="D25" s="2"/>
       <c r="F25" s="2"/>
     </row>
@@ -5488,11 +5610,46 @@
       <c r="D1004" s="2"/>
       <c r="F1004" s="2"/>
     </row>
+    <row r="1005">
+      <c r="A1005" s="2"/>
+      <c r="D1005" s="2"/>
+      <c r="F1005" s="2"/>
+    </row>
+    <row r="1006">
+      <c r="A1006" s="2"/>
+      <c r="D1006" s="2"/>
+      <c r="F1006" s="2"/>
+    </row>
+    <row r="1007">
+      <c r="A1007" s="2"/>
+      <c r="D1007" s="2"/>
+      <c r="F1007" s="2"/>
+    </row>
+    <row r="1008">
+      <c r="A1008" s="2"/>
+      <c r="D1008" s="2"/>
+      <c r="F1008" s="2"/>
+    </row>
+    <row r="1009">
+      <c r="A1009" s="2"/>
+      <c r="D1009" s="2"/>
+      <c r="F1009" s="2"/>
+    </row>
+    <row r="1010">
+      <c r="A1010" s="2"/>
+      <c r="D1010" s="2"/>
+      <c r="F1010" s="2"/>
+    </row>
+    <row r="1011">
+      <c r="A1011" s="2"/>
+      <c r="D1011" s="2"/>
+      <c r="F1011" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="G2:L2"/>
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A17:A18"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
